--- a/Data/EC/NIT-9010545452.xlsx
+++ b/Data/EC/NIT-9010545452.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F098785-089E-4634-9FE2-29581A1CEDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E848CD1E-A669-4BB6-8BED-C3777C577FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2D8E554F-4645-4CFE-8523-14B050B583E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7D56BE67-62A8-4422-B978-68B097AA552D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="72">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -62,6 +62,54 @@
     <t>INVERSIONES RIOS ACOSTA S.A.S</t>
   </si>
   <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>3778930</t>
+  </si>
+  <si>
+    <t>JOSE ANDRES GAONA LUNA</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
@@ -71,6 +119,93 @@
     <t>CAROLINA SUAREZ DAVILA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
     <t>2201</t>
   </si>
   <si>
@@ -80,142 +215,10 @@
     <t>LINA VANESSA HINCAPIE RIOS</t>
   </si>
   <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>3778930</t>
-  </si>
-  <si>
-    <t>JOSE ANDRES GAONA LUNA</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
     <t>1143414748</t>
   </si>
   <si>
     <t>MARIA ISABEL GARCIA VARGAS</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -259,7 +262,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,7 +632,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953CC3F2-302A-7574-2D40-C458F3917480}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2849BEE-992A-A9E3-1988-22461EC35070}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,32 +983,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E5074C-C2B7-4AF5-AF64-72813AA25764}">
-  <dimension ref="B2:J79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E772207E-B1A7-4182-9601-D2E5639F33B6}">
+  <dimension ref="B2:J80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1014,7 +1017,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1025,7 +1028,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1036,7 +1039,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1047,10 +1050,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1063,8 +1066,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1079,15 +1082,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2221235</v>
+        <v>2257576</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1095,27 +1098,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1135,16 +1138,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1158,39 +1161,39 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>43803</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1132828</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1201,19 +1204,19 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1224,19 +1227,19 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1247,19 +1250,19 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1270,19 +1273,19 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1293,19 +1296,19 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1316,19 +1319,19 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1339,19 +1342,19 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1362,19 +1365,19 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1385,19 +1388,19 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1408,19 +1411,19 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1431,53 +1434,53 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
-        <v>1510</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
-        <v>1132828</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>36341</v>
@@ -1489,18 +1492,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>36341</v>
@@ -1512,18 +1515,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
         <v>36341</v>
@@ -1535,18 +1538,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
         <v>36341</v>
@@ -1558,41 +1561,41 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G34" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
         <v>36341</v>
@@ -1604,64 +1607,64 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G37" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1673,18 +1676,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>36341</v>
@@ -1696,87 +1699,87 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G40" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
         <v>36341</v>
@@ -1788,18 +1791,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
         <v>36341</v>
@@ -1811,64 +1814,64 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F46" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
         <v>36341</v>
@@ -1880,18 +1883,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F48" s="18">
         <v>36341</v>
@@ -1903,64 +1906,64 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G49" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F50" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G50" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F51" s="18">
         <v>36341</v>
@@ -1972,41 +1975,41 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F52" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G52" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F53" s="18">
         <v>36341</v>
@@ -2018,18 +2021,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F54" s="18">
         <v>36341</v>
@@ -2041,41 +2044,41 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F55" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G55" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F56" s="18">
         <v>36341</v>
@@ -2087,64 +2090,64 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F57" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G57" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F58" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G58" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" s="18">
         <v>36341</v>
@@ -2156,18 +2159,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F60" s="18">
         <v>36341</v>
@@ -2179,18 +2182,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2202,18 +2205,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F62" s="18">
         <v>36341</v>
@@ -2225,18 +2228,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F63" s="18">
         <v>36341</v>
@@ -2248,18 +2251,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F64" s="18">
         <v>36341</v>
@@ -2271,18 +2274,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2294,18 +2297,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2317,18 +2320,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F67" s="18">
         <v>36341</v>
@@ -2340,18 +2343,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F68" s="18">
         <v>36341</v>
@@ -2363,18 +2366,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F69" s="18">
         <v>36341</v>
@@ -2386,18 +2389,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F70" s="18">
         <v>36341</v>
@@ -2409,18 +2412,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F71" s="18">
         <v>36341</v>
@@ -2432,66 +2435,78 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F72" s="18">
-        <v>36341</v>
+        <v>1510</v>
       </c>
       <c r="G72" s="18">
-        <v>908526</v>
+        <v>1132828</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="22" t="s">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="18">
+        <v>43803</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1132828</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F73" s="24">
-        <v>36341</v>
-      </c>
-      <c r="G73" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26"/>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="H78" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="2:10">
+      <c r="D74" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G74" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="26"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C79" s="32"/>
       <c r="H79" s="1" t="s">
@@ -2500,12 +2515,23 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="32"/>
+      <c r="H80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="H80:J80"/>
     <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H78:J78"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010545452.xlsx
+++ b/Data/EC/NIT-9010545452.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E848CD1E-A669-4BB6-8BED-C3777C577FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D59FFD95-7AD3-4B56-B298-B10C2DE9E436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7D56BE67-62A8-4422-B978-68B097AA552D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{57B43366-3C58-4F13-AA5D-0C8DDA8F43CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="73">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -62,6 +62,66 @@
     <t>INVERSIONES RIOS ACOSTA S.A.S</t>
   </si>
   <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>1038771662</t>
+  </si>
+  <si>
+    <t>CAROLINA SUAREZ DAVILA</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>1152716901</t>
+  </si>
+  <si>
+    <t>LINA VANESSA HINCAPIE RIOS</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
     <t>PPT</t>
   </si>
   <si>
@@ -71,154 +131,97 @@
     <t>JOSE ANDRES GAONA LUNA</t>
   </si>
   <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>1143414748</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL GARCIA VARGAS</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
     <t>2404</t>
   </si>
   <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>1038771662</t>
-  </si>
-  <si>
-    <t>CAROLINA SUAREZ DAVILA</t>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>1152716901</t>
-  </si>
-  <si>
-    <t>LINA VANESSA HINCAPIE RIOS</t>
-  </si>
-  <si>
-    <t>1143414748</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL GARCIA VARGAS</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -262,7 +265,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,7 +320,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -330,9 +335,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -532,23 +535,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,10 +579,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +635,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2849BEE-992A-A9E3-1988-22461EC35070}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B163AD3F-FB9F-B48A-F982-D6B606DECE28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,32 +986,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E772207E-B1A7-4182-9601-D2E5639F33B6}">
-  <dimension ref="B2:J80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69D47FA-C89E-4EA2-B799-289BA833B0A9}">
+  <dimension ref="B2:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1017,7 +1020,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1028,7 +1031,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1039,7 +1042,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1050,10 +1053,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1066,8 +1069,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1082,15 +1085,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2257576</v>
+        <v>2293917</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1098,27 +1101,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1138,16 +1141,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1161,16 +1164,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1184,39 +1187,39 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>43803</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1132828</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1227,19 +1230,19 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1250,19 +1253,19 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1273,19 +1276,19 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1296,19 +1299,19 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1319,19 +1322,19 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1342,19 +1345,19 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1365,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1388,19 +1391,19 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1411,19 +1414,19 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1434,53 +1437,53 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>1510</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>1132828</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>36341</v>
@@ -1492,18 +1495,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>36341</v>
@@ -1515,18 +1518,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>36341</v>
@@ -1538,41 +1541,41 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>36341</v>
@@ -1584,41 +1587,41 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G35" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>36341</v>
@@ -1630,41 +1633,41 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1676,41 +1679,41 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1722,41 +1725,41 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F42" s="18">
         <v>36341</v>
@@ -1768,64 +1771,64 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F43" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
         <v>36341</v>
@@ -1837,41 +1840,41 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F46" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F47" s="18">
         <v>36341</v>
@@ -1883,41 +1886,41 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F48" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F49" s="18">
         <v>36341</v>
@@ -1929,41 +1932,41 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F50" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G50" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F51" s="18">
         <v>36341</v>
@@ -1975,41 +1978,41 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F52" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G52" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F53" s="18">
         <v>36341</v>
@@ -2021,41 +2024,41 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F54" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G54" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F55" s="18">
         <v>36341</v>
@@ -2067,41 +2070,41 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F56" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G56" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F57" s="18">
         <v>36341</v>
@@ -2113,41 +2116,41 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F58" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G58" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" s="18">
         <v>36341</v>
@@ -2159,18 +2162,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F60" s="18">
         <v>36341</v>
@@ -2182,18 +2185,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2205,18 +2208,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F62" s="18">
         <v>36341</v>
@@ -2228,18 +2231,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63" s="18">
         <v>36341</v>
@@ -2251,18 +2254,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F64" s="18">
         <v>36341</v>
@@ -2274,18 +2277,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2297,18 +2300,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2320,18 +2323,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F67" s="18">
         <v>36341</v>
@@ -2343,18 +2346,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68" s="18">
         <v>36341</v>
@@ -2366,18 +2369,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69" s="18">
         <v>36341</v>
@@ -2389,18 +2392,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F70" s="18">
         <v>36341</v>
@@ -2412,18 +2415,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" s="18">
         <v>36341</v>
@@ -2435,89 +2438,101 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F72" s="18">
-        <v>1510</v>
+        <v>36341</v>
       </c>
       <c r="G72" s="18">
-        <v>1132828</v>
+        <v>908526</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F73" s="18">
-        <v>43803</v>
+        <v>36341</v>
       </c>
       <c r="G73" s="18">
-        <v>1132828</v>
+        <v>908526</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" s="23" t="s">
+    <row r="74" spans="2:10">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E74" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G74" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="26"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="H79" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F74" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G74" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="24">
+        <v>36341</v>
+      </c>
+      <c r="G75" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="80" spans="2:10">
       <c r="B80" s="32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C80" s="32"/>
       <c r="H80" s="1" t="s">
@@ -2526,12 +2541,23 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="32"/>
+      <c r="H81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B81:C81"/>
     <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="H81:J81"/>
     <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H79:J79"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010545452.xlsx
+++ b/Data/EC/NIT-9010545452.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D59FFD95-7AD3-4B56-B298-B10C2DE9E436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D0631F-FD60-4997-B58E-E1A710907B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{57B43366-3C58-4F13-AA5D-0C8DDA8F43CE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B99BEE6B-318D-440F-8B6B-4EF9CF13E943}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="74">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -265,7 +268,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,159 +323,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -490,7 +343,142 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,7 +490,7 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -520,6 +508,21 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -529,29 +532,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,19 +573,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,7 +644,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B163AD3F-FB9F-B48A-F982-D6B606DECE28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E2F63F-BD9E-1E27-961B-FBD649E25F5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -986,80 +995,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69D47FA-C89E-4EA2-B799-289BA833B0A9}">
-  <dimension ref="B2:J81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1068270D-FF0F-45DA-B0C7-81250CB632B3}">
+  <dimension ref="B2:J82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1069,13 +1078,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9010545452</v>
       </c>
@@ -1085,15 +1094,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>2293917</v>
+        <v>2330258</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1101,27 +1110,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1141,16 +1150,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1160,20 +1169,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G16" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="F16" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G16" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1183,20 +1192,20 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G17" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="F17" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G17" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1206,20 +1215,20 @@
       <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>43803</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1132828</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1229,20 +1238,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G19" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="F19" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G19" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1252,20 +1261,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G20" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="F20" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G20" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1275,20 +1284,20 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G21" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="F21" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G21" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1298,20 +1307,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G22" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="F22" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G22" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1321,20 +1330,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G23" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="F23" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G23" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1344,20 +1353,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G24" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G24" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1367,20 +1376,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G25" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G25" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1390,20 +1399,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G26" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G26" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1413,20 +1422,20 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G27" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G27" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1436,20 +1445,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G28" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G28" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1459,20 +1468,20 @@
       <c r="D29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>1510</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1132828</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1482,20 +1491,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G30" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G30" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1505,20 +1514,20 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G31" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G31" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1528,20 +1537,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G32" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G32" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>28</v>
       </c>
@@ -1551,20 +1560,20 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>46400</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1423500</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1574,20 +1583,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G34" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G34" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>28</v>
       </c>
@@ -1597,20 +1606,20 @@
       <c r="D35" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>46400</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>1423500</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1620,20 +1629,20 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G36" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G36" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>28</v>
       </c>
@@ -1643,20 +1652,20 @@
       <c r="D37" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>46400</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>1423500</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1666,20 +1675,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G38" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G38" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>28</v>
       </c>
@@ -1689,20 +1698,20 @@
       <c r="D39" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>46400</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>1423500</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1712,20 +1721,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G40" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G40" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>28</v>
       </c>
@@ -1735,20 +1744,20 @@
       <c r="D41" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>46400</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>1423500</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1758,20 +1767,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G42" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G42" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1781,20 +1790,20 @@
       <c r="D43" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>46400</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>1423500</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>28</v>
       </c>
@@ -1804,20 +1813,20 @@
       <c r="D44" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>46400</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>1423500</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1827,20 +1836,20 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G45" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G45" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>28</v>
       </c>
@@ -1850,20 +1859,20 @@
       <c r="D46" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>46400</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="19">
         <v>1423500</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1873,20 +1882,20 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G47" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="F47" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G47" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>28</v>
       </c>
@@ -1896,20 +1905,20 @@
       <c r="D48" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>46400</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="19">
         <v>1423500</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1919,20 +1928,20 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G49" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="F49" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G49" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>28</v>
       </c>
@@ -1942,20 +1951,20 @@
       <c r="D50" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>46400</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="19">
         <v>1423500</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1965,20 +1974,20 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G51" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="F51" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G51" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>28</v>
       </c>
@@ -1988,20 +1997,20 @@
       <c r="D52" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>46400</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>1423500</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2011,20 +2020,20 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G53" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="F53" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G53" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>28</v>
       </c>
@@ -2034,20 +2043,20 @@
       <c r="D54" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>46400</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>1423500</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2057,20 +2066,20 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G55" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="F55" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G55" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>28</v>
       </c>
@@ -2080,20 +2089,20 @@
       <c r="D56" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>46400</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="19">
         <v>1423500</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2103,20 +2112,20 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F57" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G57" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="F57" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G57" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>28</v>
       </c>
@@ -2126,20 +2135,20 @@
       <c r="D58" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>46400</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="19">
         <v>1423500</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2149,20 +2158,20 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F59" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G59" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="F59" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G59" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2172,20 +2181,20 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F60" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G60" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="F60" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G60" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2195,20 +2204,20 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F61" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G61" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="F61" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G61" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2218,20 +2227,20 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G62" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="F62" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G62" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2241,20 +2250,20 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F63" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G63" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="F63" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G63" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2264,20 +2273,20 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F64" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G64" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="F64" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G64" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2287,20 +2296,20 @@
       <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F65" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G65" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="F65" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G65" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2310,20 +2319,20 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F66" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G66" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="F66" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G66" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2333,20 +2342,20 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F67" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G67" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="F67" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G67" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2356,20 +2365,20 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F68" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G68" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="F68" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G68" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2379,20 +2388,20 @@
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F69" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G69" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="F69" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G69" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2402,20 +2411,20 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F70" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G70" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="F70" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G70" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2425,20 +2434,20 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F71" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G71" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="F71" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G71" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2448,20 +2457,20 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F72" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G72" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="F72" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G72" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2471,20 +2480,20 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F73" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G73" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10">
+      <c r="F73" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G73" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2494,70 +2503,93 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F74" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G74" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="22" t="s">
+      <c r="F74" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G74" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F75" s="24">
-        <v>36341</v>
-      </c>
-      <c r="G75" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="32"/>
-      <c r="H80" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" s="32"/>
+      <c r="F75" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G75" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F76" s="26">
+        <v>36341</v>
+      </c>
+      <c r="G76" s="26">
+        <v>908526</v>
+      </c>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="28"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="34"/>
       <c r="H81" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="34"/>
+      <c r="H82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B82:C82"/>
     <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="H82:J82"/>
     <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H80:J80"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
